--- a/Banco Central/9/2/1/1/2/Índice 2010 a 2021 - Mensual.xlsx
+++ b/Banco Central/9/2/1/1/2/Índice 2010 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Serie</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2723,13 +2726,27 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>125.2</v>
+        <v>125</v>
       </c>
       <c r="C138">
+        <v>96.8</v>
+      </c>
+      <c r="D138">
+        <v>125.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139">
+        <v>125.4</v>
+      </c>
+      <c r="C139">
         <v>97</v>
       </c>
-      <c r="D138">
-        <v>125.5</v>
+      <c r="D139">
+        <v>125.8</v>
       </c>
     </row>
   </sheetData>
